--- a/tesis_doctorado/datav2023/base_eleccionesv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_eleccionesv2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,10 +391,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="D2">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +407,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D3">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -427,10 +423,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D4">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -445,10 +439,8 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D5">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -463,10 +455,8 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D6">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -481,10 +471,8 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D7">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -499,10 +487,8 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D8">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -517,10 +503,8 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D9">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -535,10 +519,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D10">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +535,8 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D11">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +551,8 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D12">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +567,8 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D13">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -607,10 +583,8 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D14">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -625,10 +599,8 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="D15">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -643,10 +615,8 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D16">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +631,8 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D17">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -679,10 +647,8 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D18">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -695,30 +661,26 @@
         <v>2019</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B20">
-        <v>1989</v>
+        <v>2023</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -728,15 +690,13 @@
         </is>
       </c>
       <c r="B21">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D21">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -746,15 +706,13 @@
         </is>
       </c>
       <c r="B22">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -764,15 +722,13 @@
         </is>
       </c>
       <c r="B23">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D23">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -782,15 +738,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D24">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -800,15 +754,13 @@
         </is>
       </c>
       <c r="B25">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D25">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -818,15 +770,13 @@
         </is>
       </c>
       <c r="B26">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D26">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -836,33 +786,29 @@
         </is>
       </c>
       <c r="B27">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D27">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B28">
-        <v>1980</v>
+        <v>2021</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -872,15 +818,13 @@
         </is>
       </c>
       <c r="B29">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D29">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -890,15 +834,13 @@
         </is>
       </c>
       <c r="B30">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -908,15 +850,13 @@
         </is>
       </c>
       <c r="B31">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -926,15 +866,13 @@
         </is>
       </c>
       <c r="B32">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -944,15 +882,13 @@
         </is>
       </c>
       <c r="B33">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D33">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -962,15 +898,13 @@
         </is>
       </c>
       <c r="B34">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D34">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -980,15 +914,13 @@
         </is>
       </c>
       <c r="B35">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D35">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -998,15 +930,13 @@
         </is>
       </c>
       <c r="B36">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D36">
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1016,33 +946,29 @@
         </is>
       </c>
       <c r="B37">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="D37">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B38">
-        <v>1989</v>
+        <v>2021</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -1052,15 +978,13 @@
         </is>
       </c>
       <c r="B39">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D39">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1070,15 +994,13 @@
         </is>
       </c>
       <c r="B40">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D40">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1088,15 +1010,13 @@
         </is>
       </c>
       <c r="B41">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D41">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1106,15 +1026,13 @@
         </is>
       </c>
       <c r="B42">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D42">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1124,15 +1042,13 @@
         </is>
       </c>
       <c r="B43">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D43">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1142,51 +1058,45 @@
         </is>
       </c>
       <c r="B44">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D44">
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B45">
-        <v>1960</v>
+        <v>2018</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D45">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B46">
-        <v>1966</v>
+        <v>2023</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D46">
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -1196,15 +1106,13 @@
         </is>
       </c>
       <c r="B47">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D47">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1214,15 +1122,13 @@
         </is>
       </c>
       <c r="B48">
-        <v>1979</v>
+        <v>1966</v>
       </c>
       <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1232,15 +1138,13 @@
         </is>
       </c>
       <c r="B49">
-        <v>1984</v>
+        <v>1968</v>
       </c>
       <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1250,15 +1154,13 @@
         </is>
       </c>
       <c r="B50">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D50">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1268,15 +1170,13 @@
         </is>
       </c>
       <c r="B51">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D51">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1286,15 +1186,13 @@
         </is>
       </c>
       <c r="B52">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D52">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1304,15 +1202,13 @@
         </is>
       </c>
       <c r="B53">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D53">
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -1322,15 +1218,13 @@
         </is>
       </c>
       <c r="B54">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D54">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -1340,15 +1234,13 @@
         </is>
       </c>
       <c r="B55">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D55">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -1358,15 +1250,13 @@
         </is>
       </c>
       <c r="B56">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1376,15 +1266,13 @@
         </is>
       </c>
       <c r="B57">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -1394,15 +1282,13 @@
         </is>
       </c>
       <c r="B58">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1412,69 +1298,61 @@
         </is>
       </c>
       <c r="B59">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B60">
-        <v>1984</v>
+        <v>2017</v>
       </c>
       <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B61">
-        <v>1989</v>
+        <v>2021</v>
       </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B62">
-        <v>1994</v>
+        <v>2023</v>
       </c>
       <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1484,15 +1362,13 @@
         </is>
       </c>
       <c r="B63">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -1502,15 +1378,13 @@
         </is>
       </c>
       <c r="B64">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D64">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1520,15 +1394,13 @@
         </is>
       </c>
       <c r="B65">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1538,15 +1410,13 @@
         </is>
       </c>
       <c r="B66">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D66">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1556,69 +1426,61 @@
         </is>
       </c>
       <c r="B67">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B68">
-        <v>1984</v>
+        <v>2009</v>
       </c>
       <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B69">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B70">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -1628,15 +1490,13 @@
         </is>
       </c>
       <c r="B71">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D71">
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -1646,15 +1506,13 @@
         </is>
       </c>
       <c r="B72">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D72">
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -1664,15 +1522,13 @@
         </is>
       </c>
       <c r="B73">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D73">
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -1682,69 +1538,61 @@
         </is>
       </c>
       <c r="B74">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D74">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B75">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D75">
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B76">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D76">
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B77">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D77">
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -1754,15 +1602,13 @@
         </is>
       </c>
       <c r="B78">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D78">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -1772,15 +1618,13 @@
         </is>
       </c>
       <c r="B79">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D79">
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -1790,69 +1634,61 @@
         </is>
       </c>
       <c r="B80">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D80">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B81">
-        <v>1958</v>
+        <v>2009</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D81">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B82">
-        <v>1963</v>
+        <v>2014</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D82">
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B83">
-        <v>1968</v>
+        <v>2019</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D83">
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -1862,15 +1698,13 @@
         </is>
       </c>
       <c r="B84">
-        <v>1973</v>
+        <v>1958</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D84">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -1880,15 +1714,13 @@
         </is>
       </c>
       <c r="B85">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D85">
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -1898,15 +1730,13 @@
         </is>
       </c>
       <c r="B86">
-        <v>1983</v>
+        <v>1968</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>13 + ?</t>
-        </is>
+      <c r="D86">
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -1916,15 +1746,13 @@
         </is>
       </c>
       <c r="B87">
-        <v>1988</v>
+        <v>1973</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="D87">
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -1934,15 +1762,13 @@
         </is>
       </c>
       <c r="B88">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="D88">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -1952,15 +1778,13 @@
         </is>
       </c>
       <c r="B89">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D89">
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -1970,15 +1794,13 @@
         </is>
       </c>
       <c r="B90">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D90">
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -1988,15 +1810,13 @@
         </is>
       </c>
       <c r="B91">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D91">
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -2006,15 +1826,13 @@
         </is>
       </c>
       <c r="B92">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D92">
+        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -2024,15 +1842,13 @@
         </is>
       </c>
       <c r="B93">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D93">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -2042,69 +1858,61 @@
         </is>
       </c>
       <c r="B94">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D94">
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B95">
-        <v>1978</v>
+        <v>2012</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D95">
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B96">
-        <v>1979</v>
+        <v>2013</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D96">
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B97">
-        <v>1980</v>
+        <v>2018</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D97">
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -2114,15 +1922,13 @@
         </is>
       </c>
       <c r="B98">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="D98">
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -2132,15 +1938,13 @@
         </is>
       </c>
       <c r="B99">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D99">
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2150,15 +1954,13 @@
         </is>
       </c>
       <c r="B100">
-        <v>1993</v>
+        <v>1980</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D100">
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -2168,15 +1970,13 @@
         </is>
       </c>
       <c r="B101">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D101">
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -2186,15 +1986,13 @@
         </is>
       </c>
       <c r="B102">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D102">
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -2204,15 +2002,13 @@
         </is>
       </c>
       <c r="B103">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D103">
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -2222,15 +2018,13 @@
         </is>
       </c>
       <c r="B104">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D104">
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -2240,15 +2034,13 @@
         </is>
       </c>
       <c r="B105">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D105">
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -2258,15 +2050,13 @@
         </is>
       </c>
       <c r="B106">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D106">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -2276,69 +2066,61 @@
         </is>
       </c>
       <c r="B107">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D107">
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B108">
-        <v>1982</v>
+        <v>2014</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D108">
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B109">
-        <v>1988</v>
+        <v>2019</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D109">
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B110">
-        <v>1994</v>
+        <v>2020</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D110">
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -2348,15 +2130,13 @@
         </is>
       </c>
       <c r="B111">
-        <v>2000</v>
+        <v>1982</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D111">
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -2366,15 +2146,13 @@
         </is>
       </c>
       <c r="B112">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D112">
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -2384,15 +2162,13 @@
         </is>
       </c>
       <c r="B113">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D113">
+        <v>9</v>
       </c>
     </row>
     <row r="114">
@@ -2402,69 +2178,61 @@
         </is>
       </c>
       <c r="B114">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D114">
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B115">
-        <v>1966</v>
+        <v>2006</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D115">
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B116">
-        <v>1970</v>
+        <v>2012</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D116">
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B117">
-        <v>1974</v>
+        <v>2018</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D117">
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -2474,15 +2242,13 @@
         </is>
       </c>
       <c r="B118">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D118">
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -2492,15 +2258,13 @@
         </is>
       </c>
       <c r="B119">
-        <v>1982</v>
+        <v>1970</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D119">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -2510,15 +2274,13 @@
         </is>
       </c>
       <c r="B120">
-        <v>1985</v>
+        <v>1974</v>
       </c>
       <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -2528,15 +2290,13 @@
         </is>
       </c>
       <c r="B121">
-        <v>1991</v>
+        <v>1978</v>
       </c>
       <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -2546,15 +2306,13 @@
         </is>
       </c>
       <c r="B122">
-        <v>1995</v>
+        <v>1982</v>
       </c>
       <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -2564,15 +2322,13 @@
         </is>
       </c>
       <c r="B123">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D123">
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -2582,15 +2338,13 @@
         </is>
       </c>
       <c r="B124">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D124">
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -2600,15 +2354,13 @@
         </is>
       </c>
       <c r="B125">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D125">
+        <v>19</v>
       </c>
     </row>
     <row r="126">
@@ -2618,15 +2370,13 @@
         </is>
       </c>
       <c r="B126">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D126">
+        <v>11</v>
       </c>
     </row>
     <row r="127">
@@ -2636,15 +2386,13 @@
         </is>
       </c>
       <c r="B127">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D127">
+        <v>11</v>
       </c>
     </row>
     <row r="128">
@@ -2654,87 +2402,77 @@
         </is>
       </c>
       <c r="B128">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="D128">
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B129">
-        <v>1981</v>
+        <v>2011</v>
       </c>
       <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B130">
-        <v>1985</v>
+        <v>2015</v>
       </c>
       <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B131">
-        <v>1989</v>
+        <v>2019</v>
       </c>
       <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B132">
-        <v>1993</v>
+        <v>2023</v>
       </c>
       <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>22</v>
       </c>
     </row>
     <row r="133">
@@ -2744,15 +2482,13 @@
         </is>
       </c>
       <c r="B133">
-        <v>1997</v>
+        <v>1981</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D133">
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -2762,15 +2498,13 @@
         </is>
       </c>
       <c r="B134">
-        <v>2001</v>
+        <v>1985</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D134">
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -2780,15 +2514,13 @@
         </is>
       </c>
       <c r="B135">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D135">
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -2798,15 +2530,13 @@
         </is>
       </c>
       <c r="B136">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D136">
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -2816,15 +2546,13 @@
         </is>
       </c>
       <c r="B137">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D137">
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -2834,87 +2562,77 @@
         </is>
       </c>
       <c r="B138">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D138">
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B139">
-        <v>1974</v>
+        <v>2005</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D139">
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B140">
-        <v>1978</v>
+        <v>2009</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D140">
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B141">
-        <v>1982</v>
+        <v>2013</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D141">
+        <v>8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B142">
-        <v>1986</v>
+        <v>2017</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D142">
+        <v>9</v>
       </c>
     </row>
     <row r="143">
@@ -2924,15 +2642,13 @@
         </is>
       </c>
       <c r="B143">
-        <v>1990</v>
+        <v>1974</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D143">
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -2942,15 +2658,13 @@
         </is>
       </c>
       <c r="B144">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
       </c>
     </row>
     <row r="145">
@@ -2960,15 +2674,13 @@
         </is>
       </c>
       <c r="B145">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="C145">
-        <v>2</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -2978,15 +2690,13 @@
         </is>
       </c>
       <c r="B146">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D146">
+        <v>6</v>
       </c>
     </row>
     <row r="147">
@@ -2996,15 +2706,13 @@
         </is>
       </c>
       <c r="B147">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D147">
+        <v>12</v>
       </c>
     </row>
     <row r="148">
@@ -3014,15 +2722,13 @@
         </is>
       </c>
       <c r="B148">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D148">
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -3032,15 +2738,13 @@
         </is>
       </c>
       <c r="B149">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D149">
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -3050,15 +2754,13 @@
         </is>
       </c>
       <c r="B150">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D150">
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -3068,87 +2770,77 @@
         </is>
       </c>
       <c r="B151">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C151">
-        <v>2</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B152">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B153">
-        <v>1966</v>
+        <v>2014</v>
       </c>
       <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B154">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D154">
+        <v>6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B155">
-        <v>1974</v>
+        <v>2022</v>
       </c>
       <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -3158,15 +2850,13 @@
         </is>
       </c>
       <c r="B156">
-        <v>1978</v>
+        <v>1962</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D156">
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -3176,15 +2866,13 @@
         </is>
       </c>
       <c r="B157">
-        <v>1982</v>
+        <v>1966</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D157">
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3194,15 +2882,13 @@
         </is>
       </c>
       <c r="B158">
-        <v>1986</v>
+        <v>1970</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D158">
+        <v>5</v>
       </c>
     </row>
     <row r="159">
@@ -3212,15 +2898,13 @@
         </is>
       </c>
       <c r="B159">
-        <v>1990</v>
+        <v>1974</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D159">
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -3230,15 +2914,13 @@
         </is>
       </c>
       <c r="B160">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D160">
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -3248,15 +2930,13 @@
         </is>
       </c>
       <c r="B161">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D161">
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -3266,15 +2946,13 @@
         </is>
       </c>
       <c r="B162">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="C162">
-        <v>2</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -3284,15 +2962,13 @@
         </is>
       </c>
       <c r="B163">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D163">
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -3302,15 +2978,13 @@
         </is>
       </c>
       <c r="B164">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D164">
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -3320,15 +2994,13 @@
         </is>
       </c>
       <c r="B165">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C165">
-        <v>2</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>13</v>
       </c>
     </row>
     <row r="166">
@@ -3338,15 +3010,13 @@
         </is>
       </c>
       <c r="B166">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D166">
+        <v>12</v>
       </c>
     </row>
     <row r="167">
@@ -3356,87 +3026,77 @@
         </is>
       </c>
       <c r="B167">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C167">
-        <v>2</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B168">
-        <v>1978</v>
+        <v>2010</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D168">
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B169">
-        <v>1982</v>
+        <v>2014</v>
       </c>
       <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B170">
-        <v>1986</v>
+        <v>2018</v>
       </c>
       <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Republica Dominicana</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B171">
-        <v>1990</v>
+        <v>2022</v>
       </c>
       <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>25</v>
       </c>
     </row>
     <row r="172">
@@ -3446,15 +3106,13 @@
         </is>
       </c>
       <c r="B172">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D172">
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -3464,15 +3122,13 @@
         </is>
       </c>
       <c r="B173">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="C173">
-        <v>2</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
       </c>
     </row>
     <row r="174">
@@ -3482,15 +3138,13 @@
         </is>
       </c>
       <c r="B174">
-        <v>2000</v>
+        <v>1986</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D174">
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -3500,15 +3154,13 @@
         </is>
       </c>
       <c r="B175">
-        <v>2004</v>
+        <v>1990</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D175">
+        <v>9</v>
       </c>
     </row>
     <row r="176">
@@ -3518,15 +3170,13 @@
         </is>
       </c>
       <c r="B176">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D176">
+        <v>5</v>
       </c>
     </row>
     <row r="177">
@@ -3536,15 +3186,13 @@
         </is>
       </c>
       <c r="B177">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -3554,15 +3202,13 @@
         </is>
       </c>
       <c r="B178">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D178">
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -3572,87 +3218,77 @@
         </is>
       </c>
       <c r="B179">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D179">
+        <v>11</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Republica Dominicana</t>
         </is>
       </c>
       <c r="B180">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="C180">
-        <v>2</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Republica Dominicana</t>
         </is>
       </c>
       <c r="B181">
-        <v>1989</v>
+        <v>2012</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D181">
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Republica Dominicana</t>
         </is>
       </c>
       <c r="B182">
-        <v>1994</v>
+        <v>2016</v>
       </c>
       <c r="C182">
-        <v>2</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>8</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Republica Dominicana</t>
         </is>
       </c>
       <c r="B183">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D183">
+        <v>6</v>
       </c>
     </row>
     <row r="184">
@@ -3662,15 +3298,13 @@
         </is>
       </c>
       <c r="B184">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -3680,15 +3314,13 @@
         </is>
       </c>
       <c r="B185">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D185">
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -3698,15 +3330,13 @@
         </is>
       </c>
       <c r="B186">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D186">
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -3716,15 +3346,93 @@
         </is>
       </c>
       <c r="B187">
+        <v>1999</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>2004</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>2009</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>2014</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B191">
         <v>2019</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>2024</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tesis_doctorado/datav2023/base_eleccionesv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_eleccionesv2023.xlsx
@@ -2821,7 +2821,7 @@
         <v>2018</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>6</v>
